--- a/2017_2/204-Gnjatovic/204-1021-1-SP.xlsx
+++ b/2017_2/204-Gnjatovic/204-1021-1-SP.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\INZSERVER\RedirectedFolders\Nejab\My Documents\GitHub\PNZ\2017_2\204-Gnjatovic\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>-</t>
   </si>
@@ -177,28 +182,22 @@
     <t>Stabilization Loan (1931)</t>
   </si>
   <si>
-    <t xml:space="preserve">Table 9: Post-was foreign public debt, 1929-1932, million dinars </t>
-  </si>
-  <si>
     <t>Repurchase of a part 
 of Southern Railways (1926)</t>
   </si>
   <si>
     <t>Repurchase of Oriental Railways 
 (1926)</t>
-  </si>
-  <si>
-    <t>Source: Opšta državna statistika Kraljevine Jugoslavije,  Statistički godišnjak Kraljevine Jugoslavije 1929, Beograd: 1932, p. 498, 499; Opšta državna statistika Kraljevine Jugoslavije, Statistički godišnjak Kraljevine Jugoslavije 1930, Beograd: 1933, p. 468, 469; Opšta državna statistika Kraljevine Jugoslavije, Statistički godišnjak Kraljevine Jugoslavije 1931, Beograd: 1934, Beograd, p. 466, 467.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,12 +260,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -279,28 +275,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Officeova tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pisarna">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -338,9 +342,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pisarna">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,9 +376,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -406,9 +411,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pisarna">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -581,14 +587,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
@@ -599,186 +605,178 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2565.6999999999998</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2556.6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" customHeight="1">
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="9">
-        <v>2565.6999999999998</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="9">
-        <v>2556.6</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="38.25">
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="38.25">
-      <c r="B5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="38.25">
-      <c r="B6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="4">
-        <v>99.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="25.5">
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3">
+        <v>610.70000000000005</v>
+      </c>
+      <c r="C7" s="3">
+        <v>607.6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>576.4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1247.4000000000001</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1240.8</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1243</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1236.4000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="38.25">
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4">
-        <v>610.70000000000005</v>
-      </c>
-      <c r="D8" s="4">
-        <v>607.6</v>
-      </c>
-      <c r="E8" s="4">
-        <v>576.4</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1247.4000000000001</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1240.8</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1243</v>
-      </c>
-      <c r="F9" s="9">
-        <v>1236.4000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="D9" s="6">
         <v>2255</v>
       </c>
-      <c r="F10" s="9">
+      <c r="E9" s="6">
         <v>2248.6</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="3" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="9">
+      <c r="B10" s="6">
         <v>7044</v>
       </c>
-      <c r="D11" s="9">
+      <c r="C10" s="6">
         <v>7013</v>
       </c>
-      <c r="E11" s="9">
+      <c r="D10" s="6">
         <v>9056.9</v>
       </c>
-      <c r="F11" s="9">
+      <c r="E10" s="6">
         <v>9148.9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="66.75" customHeight="1">
-      <c r="B12" s="7" t="s">
-        <v>28</v>
-      </c>
+    <row r="12" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -794,24 +792,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
